--- a/Donnees/Statistiques Economiques/Climatologie (3).xlsx
+++ b/Donnees/Statistiques Economiques/Climatologie (3).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Annuaire\Chapitres_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Ansade_Project\Donnees\Statistiques Economiques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16961CE3-1FC1-46D6-94D0-BDEE81CC010D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370B1EC9-1458-4E5F-88D7-F54627258B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tempe1" sheetId="7" r:id="rId1"/>
@@ -1404,19 +1404,6 @@
     <definedName name="Zone_impres_MI">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -13805,8 +13792,8 @@
           <cell r="B45" t="str">
             <v>Percentage change</v>
           </cell>
-          <cell r="E45">
-            <v>0</v>
+          <cell r="E45" t="str">
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="46">
@@ -28471,37 +28458,37 @@
       <sheetName val="Fin int"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
       <sheetData sheetId="31" refreshError="1"/>
       <sheetData sheetId="32" refreshError="1"/>
       <sheetData sheetId="33" refreshError="1"/>
@@ -31746,7 +31733,7 @@
   <dimension ref="A2:AN22"/>
   <sheetViews>
     <sheetView zoomScale="60" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E19"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33550,7 +33537,7 @@
   <dimension ref="A1:AN18"/>
   <sheetViews>
     <sheetView zoomScale="49" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E15"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38910,10 +38897,10 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:AY24"/>
+  <dimension ref="A1:AX24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38922,10 +38909,10 @@
     <col min="10" max="10" width="24.6640625" customWidth="1"/>
     <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="25" width="12.109375" customWidth="1"/>
-    <col min="52" max="52" width="17.88671875" customWidth="1"/>
+    <col min="51" max="51" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:50" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -38968,9 +38955,8 @@
       <c r="AV1" s="1"/>
       <c r="AW1" s="1"/>
       <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
     </row>
-    <row r="2" spans="1:51" ht="30" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:50" ht="30" x14ac:dyDescent="0.7">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -39091,6 +39077,7 @@
       <c r="AN2" s="8">
         <v>2024</v>
       </c>
+      <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1"/>
@@ -39100,9 +39087,8 @@
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
-      <c r="AY2" s="1"/>
     </row>
-    <row r="3" spans="1:51" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:50" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
       <c r="D3" s="46" t="s">
         <v>52</v>
       </c>
@@ -39211,6 +39197,7 @@
       <c r="AN3" s="55">
         <v>225.12857142857141</v>
       </c>
+      <c r="AO3" s="1"/>
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
@@ -39220,9 +39207,8 @@
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
       <c r="AX3" s="1"/>
-      <c r="AY3" s="1"/>
     </row>
-    <row r="4" spans="1:51" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:50" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
       <c r="D4" s="46" t="s">
         <v>52</v>
       </c>
@@ -39334,6 +39320,7 @@
       <c r="AN4" s="56">
         <v>78.5</v>
       </c>
+      <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
@@ -39343,9 +39330,8 @@
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
-      <c r="AY4" s="1"/>
     </row>
-    <row r="5" spans="1:51" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:50" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
       <c r="D5" s="46" t="s">
         <v>52</v>
       </c>
@@ -39457,6 +39443,7 @@
       <c r="AN5" s="56">
         <v>317</v>
       </c>
+      <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
@@ -39466,9 +39453,8 @@
       <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
-      <c r="AY5" s="1"/>
     </row>
-    <row r="6" spans="1:51" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:50" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
       <c r="D6" s="46" t="s">
         <v>52</v>
       </c>
@@ -39580,6 +39566,7 @@
       <c r="AN6" s="56">
         <v>488.6</v>
       </c>
+      <c r="AO6" s="1"/>
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
@@ -39589,9 +39576,8 @@
       <c r="AV6" s="1"/>
       <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
-      <c r="AY6" s="1"/>
     </row>
-    <row r="7" spans="1:51" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:50" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
       <c r="D7" s="46" t="s">
         <v>52</v>
       </c>
@@ -39703,6 +39689,7 @@
       <c r="AN7" s="56">
         <v>394</v>
       </c>
+      <c r="AO7" s="1"/>
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
@@ -39712,9 +39699,8 @@
       <c r="AV7" s="1"/>
       <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
-      <c r="AY7" s="1"/>
     </row>
-    <row r="8" spans="1:51" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:50" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
       <c r="D8" s="46" t="s">
         <v>52</v>
       </c>
@@ -39826,6 +39812,7 @@
       <c r="AN8" s="56">
         <v>372</v>
       </c>
+      <c r="AO8" s="1"/>
       <c r="AP8" s="1"/>
       <c r="AQ8" s="1"/>
       <c r="AR8" s="1"/>
@@ -39835,9 +39822,8 @@
       <c r="AV8" s="1"/>
       <c r="AW8" s="1"/>
       <c r="AX8" s="1"/>
-      <c r="AY8" s="1"/>
     </row>
-    <row r="9" spans="1:51" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:50" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
       <c r="D9" s="46" t="s">
         <v>52</v>
       </c>
@@ -39949,6 +39935,7 @@
       <c r="AN9" s="56">
         <v>181</v>
       </c>
+      <c r="AO9" s="1"/>
       <c r="AP9" s="1"/>
       <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
@@ -39958,9 +39945,8 @@
       <c r="AV9" s="1"/>
       <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
-      <c r="AY9" s="1"/>
     </row>
-    <row r="10" spans="1:51" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:50" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
       <c r="D10" s="46" t="s">
         <v>52</v>
       </c>
@@ -40072,6 +40058,7 @@
       <c r="AN10" s="56">
         <v>222</v>
       </c>
+      <c r="AO10" s="1"/>
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
       <c r="AR10" s="1"/>
@@ -40081,9 +40068,8 @@
       <c r="AV10" s="1"/>
       <c r="AW10" s="1"/>
       <c r="AX10" s="1"/>
-      <c r="AY10" s="1"/>
     </row>
-    <row r="11" spans="1:51" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:50" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
       <c r="D11" s="46" t="s">
         <v>52</v>
       </c>
@@ -40191,6 +40177,7 @@
       <c r="AN11" s="56">
         <v>107</v>
       </c>
+      <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
       <c r="AQ11" s="1"/>
       <c r="AR11" s="1"/>
@@ -40200,9 +40187,8 @@
       <c r="AV11" s="1"/>
       <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
-      <c r="AY11" s="1"/>
     </row>
-    <row r="12" spans="1:51" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:50" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
       <c r="D12" s="46" t="s">
         <v>52</v>
       </c>
@@ -40314,6 +40300,7 @@
       <c r="AN12" s="56">
         <v>12</v>
       </c>
+      <c r="AO12" s="1"/>
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
@@ -40323,9 +40310,8 @@
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
-      <c r="AY12" s="1"/>
     </row>
-    <row r="13" spans="1:51" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:50" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
       <c r="D13" s="46" t="s">
         <v>52</v>
       </c>
@@ -40437,6 +40423,7 @@
       <c r="AN13" s="56">
         <v>175</v>
       </c>
+      <c r="AO13" s="1"/>
       <c r="AP13" s="1"/>
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
@@ -40446,9 +40433,8 @@
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
-      <c r="AY13" s="1"/>
     </row>
-    <row r="14" spans="1:51" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:50" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
       <c r="D14" s="46" t="s">
         <v>52</v>
       </c>
@@ -40556,6 +40542,7 @@
       <c r="AN14" s="56">
         <v>618</v>
       </c>
+      <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1"/>
@@ -40565,9 +40552,8 @@
       <c r="AV14" s="1"/>
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
-      <c r="AY14" s="1"/>
     </row>
-    <row r="15" spans="1:51" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:50" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
       <c r="D15" s="46" t="s">
         <v>52</v>
       </c>
@@ -40679,6 +40665,7 @@
       <c r="AN15" s="56">
         <v>88</v>
       </c>
+      <c r="AO15" s="1"/>
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
@@ -40688,9 +40675,8 @@
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
-      <c r="AY15" s="1"/>
     </row>
-    <row r="16" spans="1:51" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:50" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
       <c r="D16" s="46" t="s">
         <v>52</v>
       </c>
@@ -40792,6 +40778,7 @@
       <c r="AN16" s="56">
         <v>10.6</v>
       </c>
+      <c r="AO16" s="1"/>
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
       <c r="AR16" s="1"/>
@@ -40801,9 +40788,8 @@
       <c r="AV16" s="1"/>
       <c r="AW16" s="1"/>
       <c r="AX16" s="1"/>
-      <c r="AY16" s="1"/>
     </row>
-    <row r="17" spans="1:51" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:50" ht="25.2" thickBot="1" x14ac:dyDescent="0.75">
       <c r="D17" s="46" t="s">
         <v>52</v>
       </c>
@@ -40911,6 +40897,7 @@
       <c r="AN17" s="56">
         <v>88.1</v>
       </c>
+      <c r="AO17" s="1"/>
       <c r="AP17" s="1"/>
       <c r="AQ17" s="1"/>
       <c r="AR17" s="1"/>
@@ -40920,9 +40907,8 @@
       <c r="AV17" s="1"/>
       <c r="AW17" s="1"/>
       <c r="AX17" s="1"/>
-      <c r="AY17" s="1"/>
     </row>
-    <row r="18" spans="1:51" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:50" ht="24.6" x14ac:dyDescent="0.7">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -40967,9 +40953,8 @@
       <c r="AV18" s="1"/>
       <c r="AW18" s="1"/>
       <c r="AX18" s="1"/>
-      <c r="AY18" s="1"/>
     </row>
-    <row r="19" spans="1:51" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:50" ht="24.6" x14ac:dyDescent="0.7">
       <c r="I19" s="50"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -41012,9 +40997,8 @@
       <c r="AV19" s="1"/>
       <c r="AW19" s="1"/>
       <c r="AX19" s="1"/>
-      <c r="AY19" s="1"/>
     </row>
-    <row r="20" spans="1:51" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:50" ht="24.6" x14ac:dyDescent="0.7">
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -41057,9 +41041,8 @@
       <c r="AV20" s="1"/>
       <c r="AW20" s="1"/>
       <c r="AX20" s="1"/>
-      <c r="AY20" s="1"/>
     </row>
-    <row r="21" spans="1:51" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:50" ht="24.6" x14ac:dyDescent="0.7">
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -41102,9 +41085,8 @@
       <c r="AV21" s="1"/>
       <c r="AW21" s="1"/>
       <c r="AX21" s="1"/>
-      <c r="AY21" s="1"/>
     </row>
-    <row r="22" spans="1:51" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:50" ht="24.6" x14ac:dyDescent="0.7">
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -41147,9 +41129,8 @@
       <c r="AV22" s="1"/>
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
-      <c r="AY22" s="1"/>
     </row>
-    <row r="23" spans="1:51" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:50" ht="24.6" x14ac:dyDescent="0.7">
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -41192,9 +41173,8 @@
       <c r="AV23" s="1"/>
       <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
-      <c r="AY23" s="1"/>
     </row>
-    <row r="24" spans="1:51" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:50" ht="24.6" x14ac:dyDescent="0.7">
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -41237,7 +41217,6 @@
       <c r="AV24" s="1"/>
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
-      <c r="AY24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
